--- a/state_results/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/state_results/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2004 - 2008</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2005 - 2009</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2006 - 2010</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2007 - 2011</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2008 - 2012</t>
@@ -3088,7 +3108,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>2009 - 2013</t>
@@ -3524,7 +3548,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>2010 - 2014</t>
@@ -3960,7 +3988,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>2011 - 2015</t>
@@ -4396,7 +4428,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>2012 - 2016</t>
@@ -4832,7 +4868,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>2013 - 2017</t>
@@ -5268,7 +5308,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -5704,7 +5748,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -6140,7 +6188,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -6576,7 +6628,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -7012,7 +7068,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/state_results/Contact_Recreation/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -542,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,13 +636,13 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>145</v>
       </c>
       <c r="G2">
-        <v>616.215458282286</v>
+        <v>616.220978420968</v>
       </c>
       <c r="H2">
         <v>9600</v>
@@ -669,19 +675,19 @@
         <v>5528869</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -698,13 +704,13 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>145</v>
       </c>
       <c r="G3">
-        <v>616.215458282286</v>
+        <v>616.220978420968</v>
       </c>
       <c r="H3">
         <v>9600</v>
@@ -737,19 +743,19 @@
         <v>5528869</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -766,13 +772,13 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>145</v>
       </c>
       <c r="G4">
-        <v>616.215458282286</v>
+        <v>616.220978420968</v>
       </c>
       <c r="H4">
         <v>9600</v>
@@ -805,19 +811,19 @@
         <v>5528869</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -834,13 +840,13 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>145</v>
       </c>
       <c r="G5">
-        <v>616.215458282286</v>
+        <v>616.220978420968</v>
       </c>
       <c r="H5">
         <v>9600</v>
@@ -873,19 +879,19 @@
         <v>5528869</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -902,13 +908,13 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>145</v>
       </c>
       <c r="G6">
-        <v>616.215458282286</v>
+        <v>616.220978420968</v>
       </c>
       <c r="H6">
         <v>9600</v>
@@ -941,19 +947,19 @@
         <v>5528869</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -970,13 +976,13 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>135</v>
       </c>
       <c r="G7">
-        <v>536.156848871762</v>
+        <v>536.168269505653</v>
       </c>
       <c r="H7">
         <v>9600</v>
@@ -1009,19 +1015,19 @@
         <v>5528869</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1038,13 +1044,13 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>135</v>
       </c>
       <c r="G8">
-        <v>536.156848871762</v>
+        <v>536.168269505653</v>
       </c>
       <c r="H8">
         <v>9600</v>
@@ -1077,19 +1083,19 @@
         <v>5528869</v>
       </c>
       <c r="R8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1106,13 +1112,13 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>135</v>
       </c>
       <c r="G9">
-        <v>536.156848871762</v>
+        <v>536.168269505653</v>
       </c>
       <c r="H9">
         <v>9600</v>
@@ -1145,19 +1151,19 @@
         <v>5528869</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1174,13 +1180,13 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>135</v>
       </c>
       <c r="G10">
-        <v>536.156848871762</v>
+        <v>536.168269505653</v>
       </c>
       <c r="H10">
         <v>9600</v>
@@ -1213,19 +1219,19 @@
         <v>5528869</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1242,13 +1248,13 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>135</v>
       </c>
       <c r="G11">
-        <v>536.156848871762</v>
+        <v>536.168269505653</v>
       </c>
       <c r="H11">
         <v>9600</v>
@@ -1281,19 +1287,19 @@
         <v>5528869</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1310,13 +1316,13 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <v>120</v>
       </c>
       <c r="G12">
-        <v>549.938249956789</v>
+        <v>549.956068693857</v>
       </c>
       <c r="H12">
         <v>14830</v>
@@ -1349,19 +1355,19 @@
         <v>5528869</v>
       </c>
       <c r="R12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1378,13 +1384,13 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>120</v>
       </c>
       <c r="G13">
-        <v>549.938249956789</v>
+        <v>549.956068693857</v>
       </c>
       <c r="H13">
         <v>14830</v>
@@ -1417,19 +1423,19 @@
         <v>5528869</v>
       </c>
       <c r="R13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1446,13 +1452,13 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <v>120</v>
       </c>
       <c r="G14">
-        <v>549.938249956789</v>
+        <v>549.956068693857</v>
       </c>
       <c r="H14">
         <v>14830</v>
@@ -1485,19 +1491,19 @@
         <v>5528869</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1514,13 +1520,13 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>120</v>
       </c>
       <c r="G15">
-        <v>549.938249956789</v>
+        <v>549.956068693857</v>
       </c>
       <c r="H15">
         <v>14830</v>
@@ -1553,19 +1559,19 @@
         <v>5528869</v>
       </c>
       <c r="R15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1582,13 +1588,13 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>120</v>
       </c>
       <c r="G16">
-        <v>549.938249956789</v>
+        <v>549.956068693857</v>
       </c>
       <c r="H16">
         <v>14830</v>
@@ -1621,19 +1627,19 @@
         <v>5528869</v>
       </c>
       <c r="R16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1650,19 +1656,19 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>172</v>
       </c>
       <c r="G17">
-        <v>631.359455839868</v>
+        <v>631.376975102363</v>
       </c>
       <c r="H17">
         <v>14830</v>
       </c>
       <c r="I17">
-        <v>2775.8</v>
+        <v>2775.965</v>
       </c>
       <c r="J17">
         <v>20.1680672268908</v>
@@ -1677,7 +1683,7 @@
         <v>536.6</v>
       </c>
       <c r="N17">
-        <v>587.29</v>
+        <v>587.398</v>
       </c>
       <c r="O17">
         <v>1393.36</v>
@@ -1689,19 +1695,19 @@
         <v>5528869</v>
       </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1718,19 +1724,19 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18">
         <v>172</v>
       </c>
       <c r="G18">
-        <v>631.359455839868</v>
+        <v>631.376975102363</v>
       </c>
       <c r="H18">
         <v>14830</v>
       </c>
       <c r="I18">
-        <v>2775.8</v>
+        <v>2775.965</v>
       </c>
       <c r="J18">
         <v>20.1680672268908</v>
@@ -1745,7 +1751,7 @@
         <v>536.6</v>
       </c>
       <c r="N18">
-        <v>587.29</v>
+        <v>587.398</v>
       </c>
       <c r="O18">
         <v>1393.36</v>
@@ -1757,19 +1763,19 @@
         <v>5528869</v>
       </c>
       <c r="R18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1786,19 +1792,19 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19">
         <v>172</v>
       </c>
       <c r="G19">
-        <v>631.359455839868</v>
+        <v>631.376975102363</v>
       </c>
       <c r="H19">
         <v>14830</v>
       </c>
       <c r="I19">
-        <v>2775.8</v>
+        <v>2775.965</v>
       </c>
       <c r="J19">
         <v>20.1680672268908</v>
@@ -1813,7 +1819,7 @@
         <v>536.6</v>
       </c>
       <c r="N19">
-        <v>587.29</v>
+        <v>587.398</v>
       </c>
       <c r="O19">
         <v>1393.36</v>
@@ -1825,19 +1831,19 @@
         <v>5528869</v>
       </c>
       <c r="R19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1854,19 +1860,19 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20">
         <v>172</v>
       </c>
       <c r="G20">
-        <v>631.359455839868</v>
+        <v>631.376975102363</v>
       </c>
       <c r="H20">
         <v>14830</v>
       </c>
       <c r="I20">
-        <v>2775.8</v>
+        <v>2775.965</v>
       </c>
       <c r="J20">
         <v>20.1680672268908</v>
@@ -1881,7 +1887,7 @@
         <v>536.6</v>
       </c>
       <c r="N20">
-        <v>587.29</v>
+        <v>587.398</v>
       </c>
       <c r="O20">
         <v>1393.36</v>
@@ -1893,19 +1899,19 @@
         <v>5528869</v>
       </c>
       <c r="R20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1922,19 +1928,19 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21">
         <v>172</v>
       </c>
       <c r="G21">
-        <v>631.359455839868</v>
+        <v>631.376975102363</v>
       </c>
       <c r="H21">
         <v>14830</v>
       </c>
       <c r="I21">
-        <v>2775.8</v>
+        <v>2775.965</v>
       </c>
       <c r="J21">
         <v>20.1680672268908</v>
@@ -1949,7 +1955,7 @@
         <v>536.6</v>
       </c>
       <c r="N21">
-        <v>587.29</v>
+        <v>587.398</v>
       </c>
       <c r="O21">
         <v>1393.36</v>
@@ -1961,19 +1967,19 @@
         <v>5528869</v>
       </c>
       <c r="R21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1990,19 +1996,19 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22">
         <v>160</v>
       </c>
       <c r="G22">
-        <v>628.256460374536</v>
+        <v>628.273833643177</v>
       </c>
       <c r="H22">
         <v>14830</v>
       </c>
       <c r="I22">
-        <v>2761</v>
+        <v>2761.15</v>
       </c>
       <c r="J22">
         <v>20</v>
@@ -2017,7 +2023,7 @@
         <v>531</v>
       </c>
       <c r="N22">
-        <v>582.7</v>
+        <v>582.74</v>
       </c>
       <c r="O22">
         <v>1362.8</v>
@@ -2029,19 +2035,19 @@
         <v>5528869</v>
       </c>
       <c r="R22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2058,19 +2064,19 @@
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <v>160</v>
       </c>
       <c r="G23">
-        <v>628.256460374536</v>
+        <v>628.273833643177</v>
       </c>
       <c r="H23">
         <v>14830</v>
       </c>
       <c r="I23">
-        <v>2761</v>
+        <v>2761.15</v>
       </c>
       <c r="J23">
         <v>20</v>
@@ -2085,7 +2091,7 @@
         <v>531</v>
       </c>
       <c r="N23">
-        <v>582.7</v>
+        <v>582.74</v>
       </c>
       <c r="O23">
         <v>1362.8</v>
@@ -2097,19 +2103,19 @@
         <v>5528869</v>
       </c>
       <c r="R23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2126,19 +2132,19 @@
         <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24">
         <v>160</v>
       </c>
       <c r="G24">
-        <v>628.256460374536</v>
+        <v>628.273833643177</v>
       </c>
       <c r="H24">
         <v>14830</v>
       </c>
       <c r="I24">
-        <v>2761</v>
+        <v>2761.15</v>
       </c>
       <c r="J24">
         <v>20</v>
@@ -2153,7 +2159,7 @@
         <v>531</v>
       </c>
       <c r="N24">
-        <v>582.7</v>
+        <v>582.74</v>
       </c>
       <c r="O24">
         <v>1362.8</v>
@@ -2165,19 +2171,19 @@
         <v>5528869</v>
       </c>
       <c r="R24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2194,19 +2200,19 @@
         <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25">
         <v>160</v>
       </c>
       <c r="G25">
-        <v>628.256460374536</v>
+        <v>628.273833643177</v>
       </c>
       <c r="H25">
         <v>14830</v>
       </c>
       <c r="I25">
-        <v>2761</v>
+        <v>2761.15</v>
       </c>
       <c r="J25">
         <v>20</v>
@@ -2221,7 +2227,7 @@
         <v>531</v>
       </c>
       <c r="N25">
-        <v>582.7</v>
+        <v>582.74</v>
       </c>
       <c r="O25">
         <v>1362.8</v>
@@ -2233,19 +2239,19 @@
         <v>5528869</v>
       </c>
       <c r="R25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2262,19 +2268,19 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F26">
         <v>160</v>
       </c>
       <c r="G26">
-        <v>628.256460374536</v>
+        <v>628.273833643177</v>
       </c>
       <c r="H26">
         <v>14830</v>
       </c>
       <c r="I26">
-        <v>2761</v>
+        <v>2761.15</v>
       </c>
       <c r="J26">
         <v>20</v>
@@ -2289,7 +2295,7 @@
         <v>531</v>
       </c>
       <c r="N26">
-        <v>582.7</v>
+        <v>582.74</v>
       </c>
       <c r="O26">
         <v>1362.8</v>
@@ -2301,19 +2307,19 @@
         <v>5528869</v>
       </c>
       <c r="R26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2330,19 +2336,19 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F27">
-        <v>132</v>
+        <v>132.4</v>
       </c>
       <c r="G27">
-        <v>576.1735537190081</v>
+        <v>576.188429752066</v>
       </c>
       <c r="H27">
         <v>14830</v>
       </c>
       <c r="I27">
-        <v>2746.2</v>
+        <v>2746.335</v>
       </c>
       <c r="J27">
         <v>20.6611570247934</v>
@@ -2351,13 +2357,13 @@
         <v>32.2314049586777</v>
       </c>
       <c r="L27">
-        <v>146</v>
+        <v>146.2</v>
       </c>
       <c r="M27">
         <v>545.9</v>
       </c>
       <c r="N27">
-        <v>605.11</v>
+        <v>605.482</v>
       </c>
       <c r="O27">
         <v>1892.18</v>
@@ -2369,19 +2375,19 @@
         <v>5528869</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2398,19 +2404,19 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F28">
-        <v>132</v>
+        <v>132.4</v>
       </c>
       <c r="G28">
-        <v>576.1735537190081</v>
+        <v>576.188429752066</v>
       </c>
       <c r="H28">
         <v>14830</v>
       </c>
       <c r="I28">
-        <v>2746.2</v>
+        <v>2746.335</v>
       </c>
       <c r="J28">
         <v>20.6611570247934</v>
@@ -2419,13 +2425,13 @@
         <v>32.2314049586777</v>
       </c>
       <c r="L28">
-        <v>146</v>
+        <v>146.2</v>
       </c>
       <c r="M28">
         <v>545.9</v>
       </c>
       <c r="N28">
-        <v>605.11</v>
+        <v>605.482</v>
       </c>
       <c r="O28">
         <v>1892.18</v>
@@ -2437,19 +2443,19 @@
         <v>5528869</v>
       </c>
       <c r="R28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2466,19 +2472,19 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F29">
-        <v>132</v>
+        <v>132.4</v>
       </c>
       <c r="G29">
-        <v>576.1735537190081</v>
+        <v>576.188429752066</v>
       </c>
       <c r="H29">
         <v>14830</v>
       </c>
       <c r="I29">
-        <v>2746.2</v>
+        <v>2746.335</v>
       </c>
       <c r="J29">
         <v>20.6611570247934</v>
@@ -2487,13 +2493,13 @@
         <v>32.2314049586777</v>
       </c>
       <c r="L29">
-        <v>146</v>
+        <v>146.2</v>
       </c>
       <c r="M29">
         <v>545.9</v>
       </c>
       <c r="N29">
-        <v>605.11</v>
+        <v>605.482</v>
       </c>
       <c r="O29">
         <v>1892.18</v>
@@ -2505,19 +2511,19 @@
         <v>5528869</v>
       </c>
       <c r="R29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2534,19 +2540,19 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F30">
-        <v>132</v>
+        <v>132.4</v>
       </c>
       <c r="G30">
-        <v>576.1735537190081</v>
+        <v>576.188429752066</v>
       </c>
       <c r="H30">
         <v>14830</v>
       </c>
       <c r="I30">
-        <v>2746.2</v>
+        <v>2746.335</v>
       </c>
       <c r="J30">
         <v>20.6611570247934</v>
@@ -2555,13 +2561,13 @@
         <v>32.2314049586777</v>
       </c>
       <c r="L30">
-        <v>146</v>
+        <v>146.2</v>
       </c>
       <c r="M30">
         <v>545.9</v>
       </c>
       <c r="N30">
-        <v>605.11</v>
+        <v>605.482</v>
       </c>
       <c r="O30">
         <v>1892.18</v>
@@ -2573,19 +2579,19 @@
         <v>5528869</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2602,19 +2608,19 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F31">
-        <v>132</v>
+        <v>132.4</v>
       </c>
       <c r="G31">
-        <v>576.1735537190081</v>
+        <v>576.188429752066</v>
       </c>
       <c r="H31">
         <v>14830</v>
       </c>
       <c r="I31">
-        <v>2746.2</v>
+        <v>2746.335</v>
       </c>
       <c r="J31">
         <v>20.6611570247934</v>
@@ -2623,13 +2629,13 @@
         <v>32.2314049586777</v>
       </c>
       <c r="L31">
-        <v>146</v>
+        <v>146.2</v>
       </c>
       <c r="M31">
         <v>545.9</v>
       </c>
       <c r="N31">
-        <v>605.11</v>
+        <v>605.482</v>
       </c>
       <c r="O31">
         <v>1892.18</v>
@@ -2641,19 +2647,19 @@
         <v>5528869</v>
       </c>
       <c r="R31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2670,19 +2676,19 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <v>140</v>
       </c>
       <c r="G32">
-        <v>603.269841269841</v>
+        <v>603.2777777777781</v>
       </c>
       <c r="H32">
         <v>14830</v>
       </c>
       <c r="I32">
-        <v>3067.2</v>
+        <v>3067.44</v>
       </c>
       <c r="J32">
         <v>20.6349206349206</v>
@@ -2709,19 +2715,19 @@
         <v>5528869</v>
       </c>
       <c r="R32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2738,19 +2744,19 @@
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F33">
         <v>140</v>
       </c>
       <c r="G33">
-        <v>603.269841269841</v>
+        <v>603.2777777777781</v>
       </c>
       <c r="H33">
         <v>14830</v>
       </c>
       <c r="I33">
-        <v>3067.2</v>
+        <v>3067.44</v>
       </c>
       <c r="J33">
         <v>20.6349206349206</v>
@@ -2777,19 +2783,19 @@
         <v>5528869</v>
       </c>
       <c r="R33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2806,19 +2812,19 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F34">
         <v>140</v>
       </c>
       <c r="G34">
-        <v>603.269841269841</v>
+        <v>603.2777777777781</v>
       </c>
       <c r="H34">
         <v>14830</v>
       </c>
       <c r="I34">
-        <v>3067.2</v>
+        <v>3067.44</v>
       </c>
       <c r="J34">
         <v>20.6349206349206</v>
@@ -2845,19 +2851,19 @@
         <v>5528869</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2874,19 +2880,19 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F35">
         <v>140</v>
       </c>
       <c r="G35">
-        <v>603.269841269841</v>
+        <v>603.2777777777781</v>
       </c>
       <c r="H35">
         <v>14830</v>
       </c>
       <c r="I35">
-        <v>3067.2</v>
+        <v>3067.44</v>
       </c>
       <c r="J35">
         <v>20.6349206349206</v>
@@ -2913,19 +2919,19 @@
         <v>5528869</v>
       </c>
       <c r="R35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2942,19 +2948,19 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <v>140</v>
       </c>
       <c r="G36">
-        <v>603.269841269841</v>
+        <v>603.2777777777781</v>
       </c>
       <c r="H36">
         <v>14830</v>
       </c>
       <c r="I36">
-        <v>3067.2</v>
+        <v>3067.44</v>
       </c>
       <c r="J36">
         <v>20.6349206349206</v>
@@ -2981,19 +2987,19 @@
         <v>5528869</v>
       </c>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3010,16 +3016,16 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F37">
         <v>155</v>
       </c>
       <c r="G37">
-        <v>621.619681028062</v>
+        <v>584.243855513355</v>
       </c>
       <c r="H37">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I37">
         <v>3700</v>
@@ -3049,19 +3055,19 @@
         <v>5528869</v>
       </c>
       <c r="R37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3078,16 +3084,16 @@
         <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F38">
         <v>155</v>
       </c>
       <c r="G38">
-        <v>621.619681028062</v>
+        <v>584.243855513355</v>
       </c>
       <c r="H38">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I38">
         <v>3700</v>
@@ -3117,19 +3123,19 @@
         <v>5528869</v>
       </c>
       <c r="R38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3146,16 +3152,16 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F39">
         <v>155</v>
       </c>
       <c r="G39">
-        <v>621.619681028062</v>
+        <v>584.243855513355</v>
       </c>
       <c r="H39">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I39">
         <v>3700</v>
@@ -3185,19 +3191,19 @@
         <v>5528869</v>
       </c>
       <c r="R39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3214,16 +3220,16 @@
         <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F40">
         <v>155</v>
       </c>
       <c r="G40">
-        <v>621.619681028062</v>
+        <v>584.243855513355</v>
       </c>
       <c r="H40">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I40">
         <v>3700</v>
@@ -3253,19 +3259,19 @@
         <v>5528869</v>
       </c>
       <c r="R40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3282,16 +3288,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F41">
         <v>155</v>
       </c>
       <c r="G41">
-        <v>621.619681028062</v>
+        <v>584.243855513355</v>
       </c>
       <c r="H41">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I41">
         <v>3700</v>
@@ -3321,19 +3327,19 @@
         <v>5528869</v>
       </c>
       <c r="R41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3350,16 +3356,16 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F42">
         <v>130</v>
       </c>
       <c r="G42">
-        <v>545.624484756962</v>
+        <v>507.958924160746</v>
       </c>
       <c r="H42">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I42">
         <v>2730</v>
@@ -3389,19 +3395,19 @@
         <v>5528869</v>
       </c>
       <c r="R42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3418,16 +3424,16 @@
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F43">
         <v>130</v>
       </c>
       <c r="G43">
-        <v>545.624484756962</v>
+        <v>507.958924160746</v>
       </c>
       <c r="H43">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I43">
         <v>2730</v>
@@ -3457,19 +3463,19 @@
         <v>5528869</v>
       </c>
       <c r="R43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3486,16 +3492,16 @@
         <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F44">
         <v>130</v>
       </c>
       <c r="G44">
-        <v>545.624484756962</v>
+        <v>507.958924160746</v>
       </c>
       <c r="H44">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I44">
         <v>2730</v>
@@ -3525,19 +3531,19 @@
         <v>5528869</v>
       </c>
       <c r="R44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3554,16 +3560,16 @@
         <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F45">
         <v>130</v>
       </c>
       <c r="G45">
-        <v>545.624484756962</v>
+        <v>507.958924160746</v>
       </c>
       <c r="H45">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I45">
         <v>2730</v>
@@ -3593,19 +3599,19 @@
         <v>5528869</v>
       </c>
       <c r="R45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3622,16 +3628,16 @@
         <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46">
         <v>130</v>
       </c>
       <c r="G46">
-        <v>545.624484756962</v>
+        <v>507.958924160746</v>
       </c>
       <c r="H46">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I46">
         <v>2730</v>
@@ -3661,19 +3667,19 @@
         <v>5528869</v>
       </c>
       <c r="R46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3690,16 +3696,16 @@
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F47">
         <v>140</v>
       </c>
       <c r="G47">
-        <v>563.285613544125</v>
+        <v>525.325790755752</v>
       </c>
       <c r="H47">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I47">
         <v>2760</v>
@@ -3729,19 +3735,19 @@
         <v>5528869</v>
       </c>
       <c r="R47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3758,16 +3764,16 @@
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F48">
         <v>140</v>
       </c>
       <c r="G48">
-        <v>563.285613544125</v>
+        <v>525.325790755752</v>
       </c>
       <c r="H48">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I48">
         <v>2760</v>
@@ -3797,19 +3803,19 @@
         <v>5528869</v>
       </c>
       <c r="R48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3826,16 +3832,16 @@
         <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F49">
         <v>140</v>
       </c>
       <c r="G49">
-        <v>563.285613544125</v>
+        <v>525.325790755752</v>
       </c>
       <c r="H49">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I49">
         <v>2760</v>
@@ -3865,19 +3871,19 @@
         <v>5528869</v>
       </c>
       <c r="R49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3894,16 +3900,16 @@
         <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F50">
         <v>140</v>
       </c>
       <c r="G50">
-        <v>563.285613544125</v>
+        <v>525.325790755752</v>
       </c>
       <c r="H50">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I50">
         <v>2760</v>
@@ -3933,19 +3939,19 @@
         <v>5528869</v>
       </c>
       <c r="R50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3962,16 +3968,16 @@
         <v>42</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F51">
         <v>140</v>
       </c>
       <c r="G51">
-        <v>563.285613544125</v>
+        <v>525.325790755752</v>
       </c>
       <c r="H51">
-        <v>12283.558533648</v>
+        <v>7424.7012167362</v>
       </c>
       <c r="I51">
         <v>2760</v>
@@ -4001,19 +4007,19 @@
         <v>5528869</v>
       </c>
       <c r="R51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4030,13 +4036,13 @@
         <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F52">
         <v>175</v>
       </c>
       <c r="G52">
-        <v>870.702581882354</v>
+        <v>808.633589392819</v>
       </c>
       <c r="H52">
         <v>24200</v>
@@ -4069,19 +4075,19 @@
         <v>5528869</v>
       </c>
       <c r="R52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4098,13 +4104,13 @@
         <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F53">
         <v>175</v>
       </c>
       <c r="G53">
-        <v>870.702581882354</v>
+        <v>808.633589392819</v>
       </c>
       <c r="H53">
         <v>24200</v>
@@ -4137,19 +4143,19 @@
         <v>5528869</v>
       </c>
       <c r="R53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4166,13 +4172,13 @@
         <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F54">
         <v>175</v>
       </c>
       <c r="G54">
-        <v>870.702581882354</v>
+        <v>808.633589392819</v>
       </c>
       <c r="H54">
         <v>24200</v>
@@ -4205,19 +4211,19 @@
         <v>5528869</v>
       </c>
       <c r="R54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4234,13 +4240,13 @@
         <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F55">
         <v>175</v>
       </c>
       <c r="G55">
-        <v>870.702581882354</v>
+        <v>808.633589392819</v>
       </c>
       <c r="H55">
         <v>24200</v>
@@ -4273,19 +4279,19 @@
         <v>5528869</v>
       </c>
       <c r="R55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4302,13 +4308,13 @@
         <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F56">
         <v>175</v>
       </c>
       <c r="G56">
-        <v>870.702581882354</v>
+        <v>808.633589392819</v>
       </c>
       <c r="H56">
         <v>24200</v>
@@ -4341,19 +4347,19 @@
         <v>5528869</v>
       </c>
       <c r="R56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4370,13 +4376,13 @@
         <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F57">
         <v>193.5</v>
       </c>
       <c r="G57">
-        <v>1033.72167048366</v>
+        <v>970.667455891117</v>
       </c>
       <c r="H57">
         <v>24201</v>
@@ -4409,19 +4415,19 @@
         <v>5528869</v>
       </c>
       <c r="R57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4438,13 +4444,13 @@
         <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F58">
         <v>193.5</v>
       </c>
       <c r="G58">
-        <v>1033.72167048366</v>
+        <v>970.667455891117</v>
       </c>
       <c r="H58">
         <v>24201</v>
@@ -4477,19 +4483,19 @@
         <v>5528869</v>
       </c>
       <c r="R58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4506,13 +4512,13 @@
         <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F59">
         <v>193.5</v>
       </c>
       <c r="G59">
-        <v>1033.72167048366</v>
+        <v>970.667455891117</v>
       </c>
       <c r="H59">
         <v>24201</v>
@@ -4545,19 +4551,19 @@
         <v>5528869</v>
       </c>
       <c r="R59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4574,13 +4580,13 @@
         <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F60">
         <v>193.5</v>
       </c>
       <c r="G60">
-        <v>1033.72167048366</v>
+        <v>970.667455891117</v>
       </c>
       <c r="H60">
         <v>24201</v>
@@ -4613,19 +4619,19 @@
         <v>5528869</v>
       </c>
       <c r="R60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4642,13 +4648,13 @@
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F61">
         <v>193.5</v>
       </c>
       <c r="G61">
-        <v>1033.72167048366</v>
+        <v>970.667455891117</v>
       </c>
       <c r="H61">
         <v>24201</v>
@@ -4681,19 +4687,19 @@
         <v>5528869</v>
       </c>
       <c r="R61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4710,13 +4716,13 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F62">
         <v>180</v>
       </c>
       <c r="G62">
-        <v>1146.45761939912</v>
+        <v>1120.95370434334</v>
       </c>
       <c r="H62">
         <v>24201</v>
@@ -4749,19 +4755,19 @@
         <v>5528869</v>
       </c>
       <c r="R62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4778,13 +4784,13 @@
         <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F63">
         <v>180</v>
       </c>
       <c r="G63">
-        <v>1146.45761939912</v>
+        <v>1120.95370434334</v>
       </c>
       <c r="H63">
         <v>24201</v>
@@ -4817,19 +4823,19 @@
         <v>5528869</v>
       </c>
       <c r="R63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4846,13 +4852,13 @@
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F64">
         <v>180</v>
       </c>
       <c r="G64">
-        <v>1146.45761939912</v>
+        <v>1120.95370434334</v>
       </c>
       <c r="H64">
         <v>24201</v>
@@ -4885,19 +4891,19 @@
         <v>5528869</v>
       </c>
       <c r="R64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4914,13 +4920,13 @@
         <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F65">
         <v>180</v>
       </c>
       <c r="G65">
-        <v>1146.45761939912</v>
+        <v>1120.95370434334</v>
       </c>
       <c r="H65">
         <v>24201</v>
@@ -4953,19 +4959,19 @@
         <v>5528869</v>
       </c>
       <c r="R65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4982,13 +4988,13 @@
         <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F66">
         <v>180</v>
       </c>
       <c r="G66">
-        <v>1146.45761939912</v>
+        <v>1120.95370434334</v>
       </c>
       <c r="H66">
         <v>24201</v>
@@ -5021,19 +5027,19 @@
         <v>5528869</v>
       </c>
       <c r="R66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5050,13 +5056,13 @@
         <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F67">
         <v>195</v>
       </c>
       <c r="G67">
-        <v>1222.97809956078</v>
+        <v>1197.26165187954</v>
       </c>
       <c r="H67">
         <v>24201</v>
@@ -5089,19 +5095,19 @@
         <v>5528869</v>
       </c>
       <c r="R67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V67" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5118,13 +5124,13 @@
         <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F68">
         <v>195</v>
       </c>
       <c r="G68">
-        <v>1222.97809956078</v>
+        <v>1197.26165187954</v>
       </c>
       <c r="H68">
         <v>24201</v>
@@ -5157,19 +5163,19 @@
         <v>5528869</v>
       </c>
       <c r="R68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V68" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5186,13 +5192,13 @@
         <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F69">
         <v>195</v>
       </c>
       <c r="G69">
-        <v>1222.97809956078</v>
+        <v>1197.26165187954</v>
       </c>
       <c r="H69">
         <v>24201</v>
@@ -5225,19 +5231,19 @@
         <v>5528869</v>
       </c>
       <c r="R69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5254,13 +5260,13 @@
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F70">
         <v>195</v>
       </c>
       <c r="G70">
-        <v>1222.97809956078</v>
+        <v>1197.26165187954</v>
       </c>
       <c r="H70">
         <v>24201</v>
@@ -5293,19 +5299,19 @@
         <v>5528869</v>
       </c>
       <c r="R70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5322,13 +5328,13 @@
         <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F71">
         <v>195</v>
       </c>
       <c r="G71">
-        <v>1222.97809956078</v>
+        <v>1197.26165187954</v>
       </c>
       <c r="H71">
         <v>24201</v>
@@ -5361,19 +5367,19 @@
         <v>5528869</v>
       </c>
       <c r="R71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U71" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5390,13 +5396,13 @@
         <v>47</v>
       </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F72">
         <v>242</v>
       </c>
       <c r="G72">
-        <v>1388.23643289411</v>
+        <v>1362.51998521287</v>
       </c>
       <c r="H72">
         <v>24201</v>
@@ -5429,19 +5435,19 @@
         <v>5528869</v>
       </c>
       <c r="R72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V72" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5458,13 +5464,13 @@
         <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F73">
         <v>242</v>
       </c>
       <c r="G73">
-        <v>1388.23643289411</v>
+        <v>1362.51998521287</v>
       </c>
       <c r="H73">
         <v>24201</v>
@@ -5497,19 +5503,19 @@
         <v>5528869</v>
       </c>
       <c r="R73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V73" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5526,13 +5532,13 @@
         <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F74">
         <v>242</v>
       </c>
       <c r="G74">
-        <v>1388.23643289411</v>
+        <v>1362.51998521287</v>
       </c>
       <c r="H74">
         <v>24201</v>
@@ -5565,19 +5571,19 @@
         <v>5528869</v>
       </c>
       <c r="R74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5594,13 +5600,13 @@
         <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F75">
         <v>242</v>
       </c>
       <c r="G75">
-        <v>1388.23643289411</v>
+        <v>1362.51998521287</v>
       </c>
       <c r="H75">
         <v>24201</v>
@@ -5633,19 +5639,19 @@
         <v>5528869</v>
       </c>
       <c r="R75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5662,13 +5668,13 @@
         <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F76">
         <v>242</v>
       </c>
       <c r="G76">
-        <v>1388.23643289411</v>
+        <v>1362.51998521287</v>
       </c>
       <c r="H76">
         <v>24201</v>
@@ -5701,19 +5707,19 @@
         <v>5528869</v>
       </c>
       <c r="R76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U76" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5730,13 +5736,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F77">
         <v>269</v>
       </c>
       <c r="G77">
-        <v>1163.03697055165</v>
+        <v>1163.03893303525</v>
       </c>
       <c r="H77">
         <v>24201</v>
@@ -5769,19 +5775,19 @@
         <v>5528869</v>
       </c>
       <c r="R77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5798,13 +5804,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F78">
         <v>269</v>
       </c>
       <c r="G78">
-        <v>1163.03697055165</v>
+        <v>1163.03893303525</v>
       </c>
       <c r="H78">
         <v>24201</v>
@@ -5837,19 +5843,19 @@
         <v>5528869</v>
       </c>
       <c r="R78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5866,13 +5872,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F79">
         <v>269</v>
       </c>
       <c r="G79">
-        <v>1163.03697055165</v>
+        <v>1163.03893303525</v>
       </c>
       <c r="H79">
         <v>24201</v>
@@ -5905,19 +5911,19 @@
         <v>5528869</v>
       </c>
       <c r="R79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V79" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5934,13 +5940,13 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F80">
         <v>269</v>
       </c>
       <c r="G80">
-        <v>1163.03697055165</v>
+        <v>1163.03893303525</v>
       </c>
       <c r="H80">
         <v>24201</v>
@@ -5973,19 +5979,19 @@
         <v>5528869</v>
       </c>
       <c r="R80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U80" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V80" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -6002,13 +6008,13 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F81">
         <v>269</v>
       </c>
       <c r="G81">
-        <v>1163.03697055165</v>
+        <v>1163.03893303525</v>
       </c>
       <c r="H81">
         <v>24201</v>
@@ -6041,19 +6047,699 @@
         <v>5528869</v>
       </c>
       <c r="R81" t="s">
+        <v>52</v>
+      </c>
+      <c r="S81" t="s">
+        <v>53</v>
+      </c>
+      <c r="T81" t="s">
+        <v>54</v>
+      </c>
+      <c r="U81" t="s">
+        <v>55</v>
+      </c>
+      <c r="V81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82">
+        <v>288</v>
+      </c>
+      <c r="G82">
+        <v>1074.23728014269</v>
+      </c>
+      <c r="H82">
+        <v>19900</v>
+      </c>
+      <c r="I82">
+        <v>5010.5</v>
+      </c>
+      <c r="J82">
+        <v>34.7107438016529</v>
+      </c>
+      <c r="K82">
+        <v>54.5454545454545</v>
+      </c>
+      <c r="L82">
+        <v>278</v>
+      </c>
+      <c r="M82">
+        <v>884</v>
+      </c>
+      <c r="N82">
+        <v>959.9299999999999</v>
+      </c>
+      <c r="O82">
+        <v>2993.6</v>
+      </c>
+      <c r="P82">
+        <v>1789261</v>
+      </c>
+      <c r="Q82">
+        <v>5528869</v>
+      </c>
+      <c r="R82" t="s">
+        <v>52</v>
+      </c>
+      <c r="S82" t="s">
+        <v>53</v>
+      </c>
+      <c r="T82" t="s">
+        <v>54</v>
+      </c>
+      <c r="U82" t="s">
+        <v>55</v>
+      </c>
+      <c r="V82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83">
+        <v>288</v>
+      </c>
+      <c r="G83">
+        <v>1074.23728014269</v>
+      </c>
+      <c r="H83">
+        <v>19900</v>
+      </c>
+      <c r="I83">
+        <v>5010.5</v>
+      </c>
+      <c r="J83">
+        <v>34.7107438016529</v>
+      </c>
+      <c r="K83">
+        <v>54.5454545454545</v>
+      </c>
+      <c r="L83">
+        <v>278</v>
+      </c>
+      <c r="M83">
+        <v>884</v>
+      </c>
+      <c r="N83">
+        <v>959.9299999999999</v>
+      </c>
+      <c r="O83">
+        <v>2993.6</v>
+      </c>
+      <c r="P83">
+        <v>1789261</v>
+      </c>
+      <c r="Q83">
+        <v>5528869</v>
+      </c>
+      <c r="R83" t="s">
+        <v>52</v>
+      </c>
+      <c r="S83" t="s">
+        <v>53</v>
+      </c>
+      <c r="T83" t="s">
+        <v>54</v>
+      </c>
+      <c r="U83" t="s">
+        <v>55</v>
+      </c>
+      <c r="V83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84">
+        <v>288</v>
+      </c>
+      <c r="G84">
+        <v>1074.23728014269</v>
+      </c>
+      <c r="H84">
+        <v>19900</v>
+      </c>
+      <c r="I84">
+        <v>5010.5</v>
+      </c>
+      <c r="J84">
+        <v>34.7107438016529</v>
+      </c>
+      <c r="K84">
+        <v>54.5454545454545</v>
+      </c>
+      <c r="L84">
+        <v>278</v>
+      </c>
+      <c r="M84">
+        <v>884</v>
+      </c>
+      <c r="N84">
+        <v>959.9299999999999</v>
+      </c>
+      <c r="O84">
+        <v>2993.6</v>
+      </c>
+      <c r="P84">
+        <v>1789261</v>
+      </c>
+      <c r="Q84">
+        <v>5528869</v>
+      </c>
+      <c r="R84" t="s">
+        <v>52</v>
+      </c>
+      <c r="S84" t="s">
+        <v>53</v>
+      </c>
+      <c r="T84" t="s">
+        <v>54</v>
+      </c>
+      <c r="U84" t="s">
+        <v>55</v>
+      </c>
+      <c r="V84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85">
+        <v>288</v>
+      </c>
+      <c r="G85">
+        <v>1074.23728014269</v>
+      </c>
+      <c r="H85">
+        <v>19900</v>
+      </c>
+      <c r="I85">
+        <v>5010.5</v>
+      </c>
+      <c r="J85">
+        <v>34.7107438016529</v>
+      </c>
+      <c r="K85">
+        <v>54.5454545454545</v>
+      </c>
+      <c r="L85">
+        <v>278</v>
+      </c>
+      <c r="M85">
+        <v>884</v>
+      </c>
+      <c r="N85">
+        <v>959.9299999999999</v>
+      </c>
+      <c r="O85">
+        <v>2993.6</v>
+      </c>
+      <c r="P85">
+        <v>1789261</v>
+      </c>
+      <c r="Q85">
+        <v>5528869</v>
+      </c>
+      <c r="R85" t="s">
+        <v>52</v>
+      </c>
+      <c r="S85" t="s">
+        <v>53</v>
+      </c>
+      <c r="T85" t="s">
+        <v>54</v>
+      </c>
+      <c r="U85" t="s">
+        <v>55</v>
+      </c>
+      <c r="V85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86">
+        <v>288</v>
+      </c>
+      <c r="G86">
+        <v>1074.23728014269</v>
+      </c>
+      <c r="H86">
+        <v>19900</v>
+      </c>
+      <c r="I86">
+        <v>5010.5</v>
+      </c>
+      <c r="J86">
+        <v>34.7107438016529</v>
+      </c>
+      <c r="K86">
+        <v>54.5454545454545</v>
+      </c>
+      <c r="L86">
+        <v>278</v>
+      </c>
+      <c r="M86">
+        <v>884</v>
+      </c>
+      <c r="N86">
+        <v>959.9299999999999</v>
+      </c>
+      <c r="O86">
+        <v>2993.6</v>
+      </c>
+      <c r="P86">
+        <v>1789261</v>
+      </c>
+      <c r="Q86">
+        <v>5528869</v>
+      </c>
+      <c r="R86" t="s">
+        <v>52</v>
+      </c>
+      <c r="S86" t="s">
+        <v>53</v>
+      </c>
+      <c r="T86" t="s">
+        <v>54</v>
+      </c>
+      <c r="U86" t="s">
+        <v>55</v>
+      </c>
+      <c r="V86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
         <v>50</v>
       </c>
-      <c r="S81" t="s">
-        <v>51</v>
-      </c>
-      <c r="T81" t="s">
-        <v>52</v>
-      </c>
-      <c r="U81" t="s">
-        <v>53</v>
-      </c>
-      <c r="V81" t="s">
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87">
+        <v>288</v>
+      </c>
+      <c r="G87">
+        <v>779.645687178123</v>
+      </c>
+      <c r="H87">
+        <v>14100</v>
+      </c>
+      <c r="I87">
+        <v>2556.5</v>
+      </c>
+      <c r="J87">
+        <v>31.2</v>
+      </c>
+      <c r="K87">
+        <v>55.2</v>
+      </c>
+      <c r="L87">
+        <v>296.5</v>
+      </c>
+      <c r="M87">
+        <v>762</v>
+      </c>
+      <c r="N87">
+        <v>795</v>
+      </c>
+      <c r="O87">
+        <v>1542.5</v>
+      </c>
+      <c r="P87">
+        <v>1789261</v>
+      </c>
+      <c r="Q87">
+        <v>5528869</v>
+      </c>
+      <c r="R87" t="s">
+        <v>52</v>
+      </c>
+      <c r="S87" t="s">
+        <v>53</v>
+      </c>
+      <c r="T87" t="s">
+        <v>54</v>
+      </c>
+      <c r="U87" t="s">
+        <v>55</v>
+      </c>
+      <c r="V87" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88">
+        <v>288</v>
+      </c>
+      <c r="G88">
+        <v>779.645687178123</v>
+      </c>
+      <c r="H88">
+        <v>14100</v>
+      </c>
+      <c r="I88">
+        <v>2556.5</v>
+      </c>
+      <c r="J88">
+        <v>31.2</v>
+      </c>
+      <c r="K88">
+        <v>55.2</v>
+      </c>
+      <c r="L88">
+        <v>296.5</v>
+      </c>
+      <c r="M88">
+        <v>762</v>
+      </c>
+      <c r="N88">
+        <v>795</v>
+      </c>
+      <c r="O88">
+        <v>1542.5</v>
+      </c>
+      <c r="P88">
+        <v>1789261</v>
+      </c>
+      <c r="Q88">
+        <v>5528869</v>
+      </c>
+      <c r="R88" t="s">
+        <v>52</v>
+      </c>
+      <c r="S88" t="s">
+        <v>53</v>
+      </c>
+      <c r="T88" t="s">
+        <v>54</v>
+      </c>
+      <c r="U88" t="s">
+        <v>55</v>
+      </c>
+      <c r="V88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89">
+        <v>288</v>
+      </c>
+      <c r="G89">
+        <v>779.645687178123</v>
+      </c>
+      <c r="H89">
+        <v>14100</v>
+      </c>
+      <c r="I89">
+        <v>2556.5</v>
+      </c>
+      <c r="J89">
+        <v>31.2</v>
+      </c>
+      <c r="K89">
+        <v>55.2</v>
+      </c>
+      <c r="L89">
+        <v>296.5</v>
+      </c>
+      <c r="M89">
+        <v>762</v>
+      </c>
+      <c r="N89">
+        <v>795</v>
+      </c>
+      <c r="O89">
+        <v>1542.5</v>
+      </c>
+      <c r="P89">
+        <v>1789261</v>
+      </c>
+      <c r="Q89">
+        <v>5528869</v>
+      </c>
+      <c r="R89" t="s">
+        <v>52</v>
+      </c>
+      <c r="S89" t="s">
+        <v>53</v>
+      </c>
+      <c r="T89" t="s">
+        <v>54</v>
+      </c>
+      <c r="U89" t="s">
+        <v>55</v>
+      </c>
+      <c r="V89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90">
+        <v>288</v>
+      </c>
+      <c r="G90">
+        <v>779.645687178123</v>
+      </c>
+      <c r="H90">
+        <v>14100</v>
+      </c>
+      <c r="I90">
+        <v>2556.5</v>
+      </c>
+      <c r="J90">
+        <v>31.2</v>
+      </c>
+      <c r="K90">
+        <v>55.2</v>
+      </c>
+      <c r="L90">
+        <v>296.5</v>
+      </c>
+      <c r="M90">
+        <v>762</v>
+      </c>
+      <c r="N90">
+        <v>795</v>
+      </c>
+      <c r="O90">
+        <v>1542.5</v>
+      </c>
+      <c r="P90">
+        <v>1789261</v>
+      </c>
+      <c r="Q90">
+        <v>5528869</v>
+      </c>
+      <c r="R90" t="s">
+        <v>52</v>
+      </c>
+      <c r="S90" t="s">
+        <v>53</v>
+      </c>
+      <c r="T90" t="s">
+        <v>54</v>
+      </c>
+      <c r="U90" t="s">
+        <v>55</v>
+      </c>
+      <c r="V90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91">
+        <v>288</v>
+      </c>
+      <c r="G91">
+        <v>779.645687178123</v>
+      </c>
+      <c r="H91">
+        <v>14100</v>
+      </c>
+      <c r="I91">
+        <v>2556.5</v>
+      </c>
+      <c r="J91">
+        <v>31.2</v>
+      </c>
+      <c r="K91">
+        <v>55.2</v>
+      </c>
+      <c r="L91">
+        <v>296.5</v>
+      </c>
+      <c r="M91">
+        <v>762</v>
+      </c>
+      <c r="N91">
+        <v>795</v>
+      </c>
+      <c r="O91">
+        <v>1542.5</v>
+      </c>
+      <c r="P91">
+        <v>1789261</v>
+      </c>
+      <c r="Q91">
+        <v>5528869</v>
+      </c>
+      <c r="R91" t="s">
+        <v>52</v>
+      </c>
+      <c r="S91" t="s">
+        <v>53</v>
+      </c>
+      <c r="T91" t="s">
+        <v>54</v>
+      </c>
+      <c r="U91" t="s">
+        <v>55</v>
+      </c>
+      <c r="V91" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
